--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1727.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1727.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4489460333263011</v>
+        <v>0.9192272424697876</v>
       </c>
       <c r="B1">
-        <v>0.9283852319649291</v>
+        <v>1.704797029495239</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.856306885535665</v>
+        <v>1.852428674697876</v>
       </c>
       <c r="E1">
-        <v>1.84119850827677</v>
+        <v>1.096906542778015</v>
       </c>
     </row>
   </sheetData>
